--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H2">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I2">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J2">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N2">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O2">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P2">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q2">
-        <v>538.7186434066725</v>
+        <v>824.9687242077919</v>
       </c>
       <c r="R2">
-        <v>2154.87457362669</v>
+        <v>3299.874896831167</v>
       </c>
       <c r="S2">
-        <v>0.0009058307794719384</v>
+        <v>0.0005949081581594361</v>
       </c>
       <c r="T2">
-        <v>0.0004398907747120248</v>
+        <v>0.0002835482261598165</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H3">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I3">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J3">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>346.487229</v>
       </c>
       <c r="O3">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P3">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q3">
-        <v>3179.017669672911</v>
+        <v>2769.059697359389</v>
       </c>
       <c r="R3">
-        <v>19074.10601803746</v>
+        <v>16614.35818415634</v>
       </c>
       <c r="S3">
-        <v>0.005345372930598695</v>
+        <v>0.001996846857402404</v>
       </c>
       <c r="T3">
-        <v>0.003893740905342997</v>
+        <v>0.001427621330864771</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H4">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I4">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J4">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N4">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O4">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P4">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q4">
-        <v>6603.194492539683</v>
+        <v>8781.669437442777</v>
       </c>
       <c r="R4">
-        <v>39619.1669552381</v>
+        <v>52690.01662465666</v>
       </c>
       <c r="S4">
-        <v>0.01110296977353123</v>
+        <v>0.006332708910402534</v>
       </c>
       <c r="T4">
-        <v>0.008087758915848613</v>
+        <v>0.004527493076964676</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H5">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I5">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J5">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N5">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O5">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P5">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q5">
-        <v>2431.643570969717</v>
+        <v>2904.794632479593</v>
       </c>
       <c r="R5">
-        <v>9726.574283878866</v>
+        <v>11619.17852991837</v>
       </c>
       <c r="S5">
-        <v>0.004088697538590038</v>
+        <v>0.002094729138124979</v>
       </c>
       <c r="T5">
-        <v>0.00198555885776151</v>
+        <v>0.0009984007165715109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H6">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I6">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J6">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N6">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O6">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P6">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q6">
-        <v>498.8754088623663</v>
+        <v>16118.47651572713</v>
       </c>
       <c r="R6">
-        <v>2993.252453174198</v>
+        <v>96710.85909436278</v>
       </c>
       <c r="S6">
-        <v>0.0008388362014196113</v>
+        <v>0.0116234869212958</v>
       </c>
       <c r="T6">
-        <v>0.0006110351649467149</v>
+        <v>0.008310070352343279</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H7">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I7">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J7">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N7">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O7">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P7">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q7">
-        <v>4159.084111724791</v>
+        <v>4529.907572657488</v>
       </c>
       <c r="R7">
-        <v>24954.50467034874</v>
+        <v>27179.44543594493</v>
       </c>
       <c r="S7">
-        <v>0.006993309863919142</v>
+        <v>0.003266643803096912</v>
       </c>
       <c r="T7">
-        <v>0.005094150966531496</v>
+        <v>0.00233544718582221</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I8">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J8">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N8">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O8">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P8">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q8">
-        <v>16247.84295305622</v>
+        <v>28564.84123049909</v>
       </c>
       <c r="R8">
-        <v>97487.05771833734</v>
+        <v>171389.0473829945</v>
       </c>
       <c r="S8">
-        <v>0.02732000539991386</v>
+        <v>0.0205989107052168</v>
       </c>
       <c r="T8">
-        <v>0.01990076725066247</v>
+        <v>0.01472694022895718</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I9">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J9">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>346.487229</v>
       </c>
       <c r="O9">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P9">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q9">
-        <v>95879.6961530893</v>
+        <v>95879.69615308932</v>
       </c>
       <c r="R9">
-        <v>862917.2653778036</v>
+        <v>862917.2653778037</v>
       </c>
       <c r="S9">
-        <v>0.1612173273838657</v>
+        <v>0.06914154654541023</v>
       </c>
       <c r="T9">
-        <v>0.1761537998662115</v>
+        <v>0.07414785940991823</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I10">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J10">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N10">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O10">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P10">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q10">
-        <v>199153.4327173458</v>
+        <v>304068.4887298785</v>
       </c>
       <c r="R10">
-        <v>1792380.894456112</v>
+        <v>2736616.398568906</v>
       </c>
       <c r="S10">
-        <v>0.3348673958118139</v>
+        <v>0.2192723424252533</v>
       </c>
       <c r="T10">
-        <v>0.3658922101040681</v>
+        <v>0.2351491343624047</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I11">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J11">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N11">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O11">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P11">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q11">
-        <v>73338.77032560746</v>
+        <v>100579.5675025929</v>
       </c>
       <c r="R11">
-        <v>440032.6219536447</v>
+        <v>603477.4050155572</v>
       </c>
       <c r="S11">
-        <v>0.1233157907241932</v>
+        <v>0.07253075601005318</v>
       </c>
       <c r="T11">
-        <v>0.08982717293098734</v>
+        <v>0.05185498028546782</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I12">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J12">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N12">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O12">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P12">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q12">
-        <v>15046.16444138649</v>
+        <v>558108.0943297716</v>
       </c>
       <c r="R12">
-        <v>135415.4799724784</v>
+        <v>5022972.848967944</v>
       </c>
       <c r="S12">
-        <v>0.02529943789919202</v>
+        <v>0.4024674496241482</v>
       </c>
       <c r="T12">
-        <v>0.02764338171796245</v>
+        <v>0.4316087990915887</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I13">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J13">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N13">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O13">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P13">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q13">
-        <v>125438.6613548908</v>
+        <v>156849.6923638581</v>
       </c>
       <c r="R13">
-        <v>1128947.952194017</v>
+        <v>1411647.231274723</v>
       </c>
       <c r="S13">
-        <v>0.210919376527391</v>
+        <v>0.1131087262510014</v>
       </c>
       <c r="T13">
-        <v>0.2304606473983173</v>
+        <v>0.1212985585531557</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H14">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I14">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J14">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N14">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O14">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P14">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q14">
-        <v>19.8132173075625</v>
+        <v>4.681586986538666</v>
       </c>
       <c r="R14">
-        <v>118.879303845375</v>
+        <v>28.08952191923199</v>
       </c>
       <c r="S14">
-        <v>3.331501943957774E-05</v>
+        <v>3.376024096064268E-06</v>
       </c>
       <c r="T14">
-        <v>2.426772755397855E-05</v>
+        <v>2.413647293575874E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H15">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I15">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J15">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>346.487229</v>
       </c>
       <c r="O15">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P15">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q15">
-        <v>116.919228032475</v>
+        <v>15.714042803932</v>
       </c>
       <c r="R15">
-        <v>1052.273052292275</v>
+        <v>141.426385235388</v>
       </c>
       <c r="S15">
-        <v>0.0001965943387334465</v>
+        <v>1.133183839266501E-05</v>
       </c>
       <c r="T15">
-        <v>0.000214808422655613</v>
+        <v>1.215233968542197E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H16">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I16">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J16">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N16">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O16">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P16">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q16">
-        <v>242.8550209019334</v>
+        <v>49.83479755295689</v>
       </c>
       <c r="R16">
-        <v>2185.6951881174</v>
+        <v>448.513177976612</v>
       </c>
       <c r="S16">
-        <v>0.0004083496191836963</v>
+        <v>3.593727465601532E-05</v>
       </c>
       <c r="T16">
-        <v>0.0004461824188528721</v>
+        <v>3.85393749765166E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H17">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I17">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J17">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N17">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O17">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P17">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q17">
-        <v>89.43199400246252</v>
+        <v>16.48432037595467</v>
       </c>
       <c r="R17">
-        <v>536.591964014775</v>
+        <v>98.905922255728</v>
       </c>
       <c r="S17">
-        <v>0.0001503758108772683</v>
+        <v>1.188730722220588E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001095385585980737</v>
+        <v>8.498685462058971E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H18">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I18">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J18">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N18">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O18">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P18">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q18">
-        <v>18.34784633159167</v>
+        <v>91.47019478989421</v>
       </c>
       <c r="R18">
-        <v>165.130616984325</v>
+        <v>823.2317531090479</v>
       </c>
       <c r="S18">
-        <v>3.085106511086669E-05</v>
+        <v>6.596173104767849E-05</v>
       </c>
       <c r="T18">
-        <v>3.370935641588456E-05</v>
+        <v>7.073780388967555E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H19">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I19">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J19">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N19">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O19">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P19">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q19">
-        <v>152.964517405475</v>
+        <v>25.70661859059111</v>
       </c>
       <c r="R19">
-        <v>1376.680656649275</v>
+        <v>231.35956731532</v>
       </c>
       <c r="S19">
-        <v>0.000257202845546136</v>
+        <v>1.853776594127425E-05</v>
       </c>
       <c r="T19">
-        <v>0.0002810321899920569</v>
+        <v>1.988002483983805E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H20">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I20">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J20">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N20">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O20">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P20">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q20">
-        <v>1095.757943972857</v>
+        <v>2431.804293484704</v>
       </c>
       <c r="R20">
-        <v>4383.03177589143</v>
+        <v>9727.217173938814</v>
       </c>
       <c r="S20">
-        <v>0.001842466906704436</v>
+        <v>0.001753642496726702</v>
       </c>
       <c r="T20">
-        <v>0.0008947412842870727</v>
+        <v>0.0008358302242882782</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H21">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I21">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J21">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>346.487229</v>
       </c>
       <c r="O21">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P21">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q21">
-        <v>6466.146862017116</v>
+        <v>8162.504908801749</v>
       </c>
       <c r="R21">
-        <v>38796.88117210269</v>
+        <v>48975.02945281049</v>
       </c>
       <c r="S21">
-        <v>0.01087253044587773</v>
+        <v>0.005886211948126531</v>
       </c>
       <c r="T21">
-        <v>0.007919899526441393</v>
+        <v>0.004208275513961</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H22">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I22">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J22">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N22">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O22">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P22">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q22">
-        <v>13430.94936355522</v>
+        <v>25886.19521599925</v>
       </c>
       <c r="R22">
-        <v>80585.69618133131</v>
+        <v>155317.1712959955</v>
       </c>
       <c r="S22">
-        <v>0.02258352756107098</v>
+        <v>0.01866726369838333</v>
       </c>
       <c r="T22">
-        <v>0.01645056503880529</v>
+        <v>0.01334593273685342</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H23">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I23">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J23">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N23">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O23">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P23">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q23">
-        <v>4945.982086217125</v>
+        <v>8562.618014081167</v>
       </c>
       <c r="R23">
-        <v>19783.9283448685</v>
+        <v>34250.47205632467</v>
       </c>
       <c r="S23">
-        <v>0.008316442846827993</v>
+        <v>0.006174744765835237</v>
       </c>
       <c r="T23">
-        <v>0.004038642282471451</v>
+        <v>0.002943039024307624</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H24">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I24">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J24">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N24">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O24">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P24">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q24">
-        <v>1014.716492558784</v>
+        <v>47513.29261969055</v>
       </c>
       <c r="R24">
-        <v>6088.298955352706</v>
+        <v>285079.7557181433</v>
       </c>
       <c r="S24">
-        <v>0.001706199409742147</v>
+        <v>0.03426317213129988</v>
       </c>
       <c r="T24">
-        <v>0.001242850315710524</v>
+        <v>0.02449603744844302</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H25">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I25">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J25">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N25">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O25">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P25">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q25">
-        <v>8459.609688379476</v>
+        <v>13353.05007454161</v>
       </c>
       <c r="R25">
-        <v>50757.65813027685</v>
+        <v>80118.30044724965</v>
       </c>
       <c r="S25">
-        <v>0.01422444708724968</v>
+        <v>0.009629260107144849</v>
       </c>
       <c r="T25">
-        <v>0.01036154300151098</v>
+        <v>0.006884322189478193</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H26">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I26">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J26">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N26">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O26">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P26">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q26">
-        <v>474.022058682445</v>
+        <v>9.966718039839998</v>
       </c>
       <c r="R26">
-        <v>2844.13235209467</v>
+        <v>59.80030823903999</v>
       </c>
       <c r="S26">
-        <v>0.0007970464288889948</v>
+        <v>7.187280799850275E-06</v>
       </c>
       <c r="T26">
-        <v>0.0005805941557149762</v>
+        <v>5.138458837113178E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H27">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I27">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J27">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>346.487229</v>
       </c>
       <c r="O27">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P27">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q27">
-        <v>2797.238444982981</v>
+        <v>33.453919438665</v>
       </c>
       <c r="R27">
-        <v>25175.14600484683</v>
+        <v>301.085274947985</v>
       </c>
       <c r="S27">
-        <v>0.004703428611574989</v>
+        <v>2.41245625591225E-05</v>
       </c>
       <c r="T27">
-        <v>0.005139192143755333</v>
+        <v>2.587134309737734E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H28">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I28">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J28">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N28">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O28">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P28">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q28">
-        <v>5810.194032715881</v>
+        <v>106.0942319796684</v>
       </c>
       <c r="R28">
-        <v>52291.74629444293</v>
+        <v>954.8480878170151</v>
       </c>
       <c r="S28">
-        <v>0.009769575740420802</v>
+        <v>7.650753572382315E-05</v>
       </c>
       <c r="T28">
-        <v>0.01067470797142188</v>
+        <v>8.204719573235976E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H29">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I29">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J29">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N29">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O29">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P29">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q29">
-        <v>2139.619086141173</v>
+        <v>35.09377775911</v>
       </c>
       <c r="R29">
-        <v>12837.71451684704</v>
+        <v>210.56266655466</v>
       </c>
       <c r="S29">
-        <v>0.003597671712855909</v>
+        <v>2.530711053267772E-05</v>
       </c>
       <c r="T29">
-        <v>0.00262065934299059</v>
+        <v>1.809301033029721E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H30">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I30">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J30">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N30">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O30">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P30">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q30">
-        <v>438.9637359486571</v>
+        <v>194.7326073704233</v>
       </c>
       <c r="R30">
-        <v>3950.673623537914</v>
+        <v>1752.59346633381</v>
       </c>
       <c r="S30">
-        <v>0.000738097461375812</v>
+        <v>0.000140427162127353</v>
       </c>
       <c r="T30">
-        <v>0.000806480758630698</v>
+        <v>0.0001505950328709268</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H31">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I31">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J31">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N31">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O31">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P31">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q31">
-        <v>3659.605319032875</v>
+        <v>54.72730080351667</v>
       </c>
       <c r="R31">
-        <v>32936.44787129587</v>
+        <v>492.54570723165</v>
       </c>
       <c r="S31">
-        <v>0.006153459100164757</v>
+        <v>3.946539640435743E-05</v>
       </c>
       <c r="T31">
-        <v>0.006723565142811199</v>
+        <v>4.23229564618589E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H32">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I32">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J32">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N32">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O32">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P32">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q32">
-        <v>25.8376331750025</v>
+        <v>4.349380256341333</v>
       </c>
       <c r="R32">
-        <v>155.025799050015</v>
+        <v>26.096281538048</v>
       </c>
       <c r="S32">
-        <v>4.344479940515949E-05</v>
+        <v>3.136460476025643E-06</v>
       </c>
       <c r="T32">
-        <v>3.164658383327129E-05</v>
+        <v>2.242374202302755E-06</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H33">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I33">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J33">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>346.487229</v>
       </c>
       <c r="O33">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P33">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q33">
-        <v>152.469741693819</v>
+        <v>14.598969903848</v>
       </c>
       <c r="R33">
-        <v>1372.227675244371</v>
+        <v>131.390729134632</v>
       </c>
       <c r="S33">
-        <v>0.0002563709027982129</v>
+        <v>1.052772795097585E-05</v>
       </c>
       <c r="T33">
-        <v>0.0002801231693632206</v>
+        <v>1.12900062410687E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H34">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I34">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J34">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N34">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O34">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P34">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q34">
-        <v>316.6976290305307</v>
+        <v>46.29850629259645</v>
       </c>
       <c r="R34">
-        <v>2850.278661274776</v>
+        <v>416.686556633368</v>
       </c>
       <c r="S34">
-        <v>0.0005325125901482534</v>
+        <v>3.338715553187934E-05</v>
       </c>
       <c r="T34">
-        <v>0.0005818488480947309</v>
+        <v>3.580461008127678E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H35">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I35">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J35">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N35">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O35">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P35">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q35">
-        <v>116.6247267808785</v>
+        <v>15.31458836256533</v>
       </c>
       <c r="R35">
-        <v>699.748360685271</v>
+        <v>91.887530175392</v>
       </c>
       <c r="S35">
-        <v>0.0001960991483375802</v>
+        <v>1.104378055603581E-05</v>
       </c>
       <c r="T35">
-        <v>0.0001428449025537755</v>
+        <v>7.895616349716438E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H36">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I36">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J36">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N36">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O36">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P36">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q36">
-        <v>23.92670083349033</v>
+        <v>84.9794440233191</v>
       </c>
       <c r="R36">
-        <v>215.340307501413</v>
+        <v>764.8149962098719</v>
       </c>
       <c r="S36">
-        <v>4.02316540024239E-05</v>
+        <v>6.128106804760753E-05</v>
       </c>
       <c r="T36">
-        <v>4.395903866186346E-05</v>
+        <v>6.57182294165109E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H37">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I37">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J37">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N37">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O37">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P37">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q37">
-        <v>199.474978150339</v>
+        <v>23.88246970027556</v>
       </c>
       <c r="R37">
-        <v>1795.274803353051</v>
+        <v>214.94222730248</v>
       </c>
       <c r="S37">
-        <v>0.0003354080597627809</v>
+        <v>1.722232085262763E-05</v>
       </c>
       <c r="T37">
-        <v>0.0003664829655207408</v>
+        <v>1.846933268197061E-05</v>
       </c>
     </row>
   </sheetData>
